--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.36359999999999</v>
+        <v>-7.280199999999993</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.81340000000001</v>
+        <v>-13.961</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.205200000000002</v>
+        <v>5.1815</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.023500000000001</v>
+        <v>4.964600000000002</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.47859999999999</v>
+        <v>-14.42839999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.832999999999991</v>
+        <v>6.678699999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.961699999999993</v>
+        <v>-9.035899999999993</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.883799999999994</v>
+        <v>-9.05979999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.19100000000001</v>
+        <v>-12.1368</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.765600000000004</v>
+        <v>-9.0053</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.4619</v>
+        <v>-11.52640000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.5729</v>
+        <v>-12.688</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.02299999999999</v>
+        <v>-13.0431</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.050700000000003</v>
+        <v>8.811100000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.9697</v>
+        <v>-13.2629</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.878699999999991</v>
+        <v>-8.944299999999997</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.5224</v>
+        <v>-7.589300000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.522200000000001</v>
+        <v>-7.575000000000002</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.753199999999992</v>
+        <v>6.586899999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.154599999999999</v>
+        <v>-8.17709999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.6178</v>
+        <v>5.945399999999998</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.7313</v>
+        <v>-11.74250000000001</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.711799999999999</v>
+        <v>-7.895899999999999</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.45170000000001</v>
+        <v>-12.7209</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.149400000000005</v>
+        <v>9.332000000000006</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.496100000000002</v>
+        <v>9.608800000000004</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-14.39019999999999</v>
+        <v>-14.49149999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.391</v>
+        <v>-13.76869999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.763899999999999</v>
+        <v>-7.7093</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.9136</v>
+        <v>-12.81350000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.29389999999999</v>
+        <v>-12.2257</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.289</v>
+        <v>-13.383</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.159399999999994</v>
+        <v>-8.132999999999997</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.2577</v>
+        <v>-13.14940000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
